--- a/Evaluation/eval003/sub0561/Classifcation Report.xlsx
+++ b/Evaluation/eval003/sub0561/Classifcation Report.xlsx
@@ -400,13 +400,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8557692307692307</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8712871287128713</v>
+        <v>0.8811881188118812</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8934010152284264</v>
+        <v>0.8682926829268293</v>
       </c>
       <c r="E2" t="n">
         <v>101</v>
@@ -419,13 +419,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8773584905660378</v>
+        <v>0.8775510204081632</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9207920792079208</v>
+        <v>0.8514851485148515</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8985507246376812</v>
+        <v>0.864321608040201</v>
       </c>
       <c r="E3" t="n">
         <v>101</v>
@@ -438,16 +438,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8960396039603961</v>
+        <v>0.8663366336633663</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8960396039603961</v>
+        <v>0.8663366336633663</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8960396039603961</v>
+        <v>0.8663366336633663</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8960396039603961</v>
+        <v>0.8663366336633663</v>
       </c>
     </row>
     <row r="5">
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8970125786163522</v>
+        <v>0.866660125588697</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8960396039603961</v>
+        <v>0.8663366336633663</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8959758699330538</v>
+        <v>0.8663071454835152</v>
       </c>
       <c r="E5" t="n">
         <v>202</v>
@@ -476,13 +476,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8970125786163522</v>
+        <v>0.866660125588697</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8960396039603961</v>
+        <v>0.8663366336633663</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8959758699330537</v>
+        <v>0.8663071454835151</v>
       </c>
       <c r="E6" t="n">
         <v>202</v>
